--- a/biology/Botanique/Verschaffeltia_splendida/Verschaffeltia_splendida.xlsx
+++ b/biology/Botanique/Verschaffeltia_splendida/Verschaffeltia_splendida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Verschaffeltia splendida est une espèce de la famille des Arecaceae (Palmiers), la seule du genre Verschaffeltia, originaire des Seychelles.
 Son nom vient du patronyme d'Ambroise Verschaffelt, horticulteur gantois, qui publia cette espèce en 1865 dans sa revue L'Illustration Horticole (1865, 12 (Misc.) 6, 1865).
@@ -512,19 +524,56 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Areceae
 Sous-tribu des Verschaffeltiinae
-Ce genre partage sa sous-tribu avec les genres suivant : Nephrosperma,  Phoenicophorium, Roscheria [2] .
-Synonymes
-Synonymes :
+Ce genre partage sa sous-tribu avec les genres suivant : Nephrosperma,  Phoenicophorium, Roscheria  .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Verschaffeltia_splendida</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Verschaffeltia_splendida</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Synonymes :
 Regelia magnifica H.Wendl.
 Regelia majestica auct.
 Regelia princeps Balf.f.
 Stevensonia viridifolia Duncan
-Autrefois classé dans ce genre, Verschaffeltia melanochaetes est considéré comme étant désormais un synonyme de Roscheria melanochaetes[3].
+Autrefois classé dans ce genre, Verschaffeltia melanochaetes est considéré comme étant désormais un synonyme de Roscheria melanochaetes.
 </t>
         </is>
       </c>
